--- a/SIM Card Details/Airtel/SMS_WHITELIST_TEMPLATE2021-12-02T10_05_50+05_30.xlsx
+++ b/SIM Card Details/Airtel/SMS_WHITELIST_TEMPLATE2021-12-02T10_05_50+05_30.xlsx
@@ -81,34 +81,34 @@
     <t>3</t>
   </si>
   <si>
-    <t>5754000558762</t>
+    <t>5754000558770</t>
   </si>
   <si>
-    <t>5754000558758</t>
+    <t>5754000558769</t>
   </si>
   <si>
-    <t>5754000558756</t>
+    <t>5754000558773</t>
   </si>
   <si>
-    <t>5754000558764</t>
+    <t>5754000558767</t>
   </si>
   <si>
-    <t>5754000558759</t>
+    <t>5754000558765</t>
   </si>
   <si>
-    <t>5754000558760</t>
+    <t>5754000558774</t>
   </si>
   <si>
-    <t>5754000558757</t>
+    <t>5754000558771</t>
   </si>
   <si>
-    <t>5754000558763</t>
+    <t>5754000558772</t>
   </si>
   <si>
-    <t>5754000558761</t>
+    <t>5754000558768</t>
   </si>
   <si>
-    <t>5754000558755</t>
+    <t>5754000558766</t>
   </si>
 </sst>
 </file>
@@ -445,7 +445,7 @@
   <dimension ref="A1:K270"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -499,7 +499,7 @@
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="A2" t="s">
         <v>19</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -534,7 +534,7 @@
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="A3" t="s">
         <v>20</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -569,7 +569,7 @@
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="A4" t="s">
         <v>21</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -604,7 +604,7 @@
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="A5" t="s">
         <v>22</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -639,7 +639,7 @@
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="A6" t="s">
         <v>23</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -674,7 +674,7 @@
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+      <c r="A7" t="s">
         <v>24</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -709,7 +709,7 @@
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+      <c r="A8" t="s">
         <v>25</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -744,7 +744,7 @@
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+      <c r="A9" t="s">
         <v>26</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -779,7 +779,7 @@
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+      <c r="A10" t="s">
         <v>27</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -814,7 +814,7 @@
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+      <c r="A11" t="s">
         <v>28</v>
       </c>
       <c r="B11" s="1" t="s">

--- a/SIM Card Details/Airtel/SMS_WHITELIST_TEMPLATE2021-12-02T10_05_50+05_30.xlsx
+++ b/SIM Card Details/Airtel/SMS_WHITELIST_TEMPLATE2021-12-02T10_05_50+05_30.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2452" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2442" uniqueCount="24">
   <si>
     <t>MOBILE_NUMBER</t>
   </si>
@@ -81,34 +81,19 @@
     <t>3</t>
   </si>
   <si>
-    <t>5754000558770</t>
+    <t>5754000558778</t>
   </si>
   <si>
-    <t>5754000558769</t>
+    <t>5754000558777</t>
   </si>
   <si>
-    <t>5754000558773</t>
+    <t>5754000558776</t>
   </si>
   <si>
-    <t>5754000558767</t>
+    <t>5754000558775</t>
   </si>
   <si>
-    <t>5754000558765</t>
-  </si>
-  <si>
-    <t>5754000558774</t>
-  </si>
-  <si>
-    <t>5754000558771</t>
-  </si>
-  <si>
-    <t>5754000558772</t>
-  </si>
-  <si>
-    <t>5754000558768</t>
-  </si>
-  <si>
-    <t>5754000558766</t>
+    <t>5754000558779</t>
   </si>
 </sst>
 </file>
@@ -445,7 +430,7 @@
   <dimension ref="A1:K270"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="B2" sqref="B2:B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -502,7 +487,7 @@
       <c r="A2" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" t="s">
         <v>11</v>
       </c>
       <c r="C2" t="s">
@@ -537,7 +522,7 @@
       <c r="A3" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" t="s">
         <v>11</v>
       </c>
       <c r="C3" t="s">
@@ -572,7 +557,7 @@
       <c r="A4" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" t="s">
         <v>11</v>
       </c>
       <c r="C4" t="s">
@@ -607,7 +592,7 @@
       <c r="A5" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" t="s">
         <v>11</v>
       </c>
       <c r="C5" t="s">
@@ -642,7 +627,7 @@
       <c r="A6" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" t="s">
         <v>11</v>
       </c>
       <c r="C6" t="s">
@@ -674,12 +659,7 @@
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>24</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>11</v>
-      </c>
+      <c r="B7" s="1"/>
       <c r="C7" t="s">
         <v>12</v>
       </c>
@@ -709,12 +689,7 @@
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>25</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>11</v>
-      </c>
+      <c r="B8" s="1"/>
       <c r="C8" t="s">
         <v>12</v>
       </c>
@@ -744,12 +719,7 @@
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>11</v>
-      </c>
+      <c r="B9" s="1"/>
       <c r="C9" t="s">
         <v>12</v>
       </c>
@@ -779,12 +749,7 @@
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>27</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>11</v>
-      </c>
+      <c r="B10" s="1"/>
       <c r="C10" t="s">
         <v>12</v>
       </c>
@@ -814,12 +779,7 @@
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>28</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>11</v>
-      </c>
+      <c r="B11" s="1"/>
       <c r="C11" t="s">
         <v>12</v>
       </c>
